--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FE942B6A-ED38-43D5-934B-A41DD5B55A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excelsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86084A-23E9-4724-89A2-C2D48FEFEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44B22B6C-9E56-4048-B129-2F39C77606ED}"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="LOGINDATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:G12"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>testName</t>
   </si>
